--- a/guias.xlsx
+++ b/guias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +434,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>channel_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>channel_name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>thumbnail</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>thumbnail</t>
+          <t>video_url</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>video_url</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Classes</t>
         </is>
@@ -469,30 +469,27 @@
       <c r="A2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B2" t="n">
-        <v>15</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Estudo arcano</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Estudo arcano</t>
+          <t>GUIA Definitivo para Iniciantes [FEITICEIRO LATAM 2025] 🧙‍♂️</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GUIA Definitivo para Iniciantes [FEITICEIRO LATAM 2025] 🧙‍♂️</t>
+          <t>https://i.ytimg.com/vi/X3jlw5pFTSg/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/X3jlw5pFTSg/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=X3jlw5pFTSg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=X3jlw5pFTSg</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>Feiticeiro</t>
         </is>
@@ -502,30 +499,27 @@
       <c r="A3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B3" t="n">
-        <v>18</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Estudo arcano</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Estudo arcano</t>
+          <t>GUIA Definitivo para Iniciantes [ARCANO LATAM 2025] 🧙‍♂️</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GUIA Definitivo para Iniciantes [ARCANO LATAM 2025] 🧙‍♂️</t>
+          <t>https://i.ytimg.com/vi/eB0SQIsxZuQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/eB0SQIsxZuQ/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=eB0SQIsxZuQ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=eB0SQIsxZuQ</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>Arcano</t>
         </is>
@@ -535,30 +529,27 @@
       <c r="A4" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B4" t="n">
-        <v>56</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asbrun</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asbrun</t>
+          <t>Guia de UP LATAM - Open Beta - Ragnarok Online</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Guia de UP LATAM - Open Beta - Ragnarok Online</t>
+          <t>https://i.ytimg.com/vi/McBLjE_J1zQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/McBLjE_J1zQ/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=McBLjE_J1zQ</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=McBLjE_J1zQ</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -568,30 +559,27 @@
       <c r="A5" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B5" t="n">
-        <v>72</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo O SHURA - Guia Geral da Classe - Comece bem no Ragnarok!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Entendendo O SHURA - Guia Geral da Classe - Comece bem no Ragnarok!</t>
+          <t>https://i.ytimg.com/vi/QDDnc4OGmfI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/QDDnc4OGmfI/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=QDDnc4OGmfI</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=QDDnc4OGmfI</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Shura</t>
         </is>
@@ -601,30 +589,27 @@
       <c r="A6" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B6" t="n">
-        <v>73</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo O Arcebispo - Guia Geral da Classe - Comece bem no Ragnarok!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Entendendo O Arcebispo - Guia Geral da Classe - Comece bem no Ragnarok!</t>
+          <t>https://i.ytimg.com/vi/JGDeVgaAJFI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/JGDeVgaAJFI/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=JGDeVgaAJFI</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=JGDeVgaAJFI</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>Arcebispo</t>
         </is>
@@ -634,30 +619,27 @@
       <c r="A7" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B7" t="n">
-        <v>74</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo O Renegado - Guia Geral da Classe - Comece bem no Ragnarok!</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Entendendo O Renegado - Guia Geral da Classe - Comece bem no Ragnarok!</t>
+          <t>https://i.ytimg.com/vi/i4CeCh6tULU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/i4CeCh6tULU/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=i4CeCh6tULU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=i4CeCh6tULU</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>Renegado</t>
         </is>
@@ -667,30 +649,27 @@
       <c r="A8" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B8" t="n">
-        <v>76</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo O Sicário - Guia Geral da Classe - Comece bem no Ragnarok!</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Entendendo O Sicário - Guia Geral da Classe - Comece bem no Ragnarok!</t>
+          <t>https://i.ytimg.com/vi/WeD8jmia1Mw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/WeD8jmia1Mw/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=WeD8jmia1Mw</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=WeD8jmia1Mw</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>Sicário</t>
         </is>
@@ -700,30 +679,27 @@
       <c r="A9" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B9" t="n">
-        <v>77</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo O Trovador e a Musa - Guia Geral da Classe - Comece bem no ROLATAM!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Entendendo O Trovador e a Musa - Guia Geral da Classe - Comece bem no ROLATAM!</t>
+          <t>https://i.ytimg.com/vi/Zo86kqqlrYQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Zo86kqqlrYQ/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=Zo86kqqlrYQ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Zo86kqqlrYQ</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>Trovador</t>
         </is>
@@ -733,30 +709,27 @@
       <c r="A10" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B10" t="n">
-        <v>79</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo o Sentinela - Guia Geral da Classe - Comece bem no ROLATAM!</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Entendendo o Sentinela - Guia Geral da Classe - Comece bem no ROLATAM!</t>
+          <t>https://i.ytimg.com/vi/3VMaxgqe6Ic/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/3VMaxgqe6Ic/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=3VMaxgqe6Ic</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=3VMaxgqe6Ic</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>Sentinela</t>
         </is>
@@ -766,30 +739,27 @@
       <c r="A11" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B11" t="n">
-        <v>80</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo o Guardião Real - Guia Geral da Classe - Comece bem no ROLATAM!</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Entendendo o Guardião Real - Guia Geral da Classe - Comece bem no ROLATAM!</t>
+          <t>https://i.ytimg.com/vi/bB-7rZWJc0U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/bB-7rZWJc0U/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=bB-7rZWJc0U</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=bB-7rZWJc0U</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>Guardião Real</t>
         </is>
@@ -799,30 +769,27 @@
       <c r="A12" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B12" t="n">
-        <v>81</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>Entendendo o Cavaleiro Rúnico - Guia Geral da Classe - Comece bem no ROLATAM!</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Entendendo o Cavaleiro Rúnico - Guia Geral da Classe - Comece bem no ROLATAM!</t>
+          <t>https://i.ytimg.com/vi/QQ0zd4VZRsg/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/QQ0zd4VZRsg/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=QQ0zd4VZRsg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=QQ0zd4VZRsg</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Cavaleiro Rúnico</t>
         </is>
@@ -832,30 +799,27 @@
       <c r="A13" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B13" t="n">
-        <v>83</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lyel z</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>COMEÇANDO BEM NO KAFRAVERSO! GUIA DE COMEÇO DE JORNADA!</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COMEÇANDO BEM NO KAFRAVERSO! GUIA DE COMEÇO DE JORNADA!</t>
+          <t>https://i.ytimg.com/vi/lDddhc-YhGA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/lDddhc-YhGA/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=lDddhc-YhGA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=lDddhc-YhGA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -865,30 +829,27 @@
       <c r="A14" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B14" t="n">
-        <v>84</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>deathnokage</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>deathnokage</t>
+          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 3 - Progressão de Equipamentos por Episódio</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 3 - Progressão de Equipamentos por Episódio</t>
+          <t>https://i.ytimg.com/vi/ng4j2_xKE-U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ng4j2_xKE-U/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=ng4j2_xKE-U</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ng4j2_xKE-U</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Arcano</t>
         </is>
@@ -898,30 +859,27 @@
       <c r="A15" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B15" t="n">
-        <v>85</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>deathnokage</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>deathnokage</t>
+          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 2 - Habilidades explicadas (-Memorizar)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 2 - Habilidades explicadas (-Memorizar)</t>
+          <t>https://i.ytimg.com/vi/OakmWb5kiMA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/OakmWb5kiMA/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=OakmWb5kiMA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=OakmWb5kiMA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>Arcano</t>
         </is>
@@ -931,30 +889,27 @@
       <c r="A16" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B16" t="n">
-        <v>86</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>deathnokage</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>deathnokage</t>
+          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 1 - Status, Árvore de Habilidades e Builds</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 1 - Status, Árvore de Habilidades e Builds</t>
+          <t>https://i.ytimg.com/vi/r2D6PBRE7O4/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/r2D6PBRE7O4/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=r2D6PBRE7O4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=r2D6PBRE7O4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>Arcano</t>
         </is>
@@ -964,30 +919,27 @@
       <c r="A17" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B17" t="n">
-        <v>119</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KDash Ragnarok</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KDash Ragnarok</t>
+          <t>Guia de SICÁRIO: Toxinas Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guia de SICÁRIO: Toxinas Ragnarok LATAM</t>
+          <t>https://i.ytimg.com/vi/9yIjpI58N4Q/sddefault.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/9yIjpI58N4Q/sddefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=9yIjpI58N4Q</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=9yIjpI58N4Q</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Sicário</t>
         </is>
@@ -997,30 +949,27 @@
       <c r="A18" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B18" t="n">
-        <v>166</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Joga Junto Ragnarok</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Joga Junto Ragnarok</t>
+          <t>As melhores classes para [NÃO] começar no Ragnarok LATAM! 🗡️ [Guia para {NÃO} Iniciantes]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>As melhores classes para [NÃO] começar no Ragnarok LATAM! 🗡️ [Guia para {NÃO} Iniciantes]</t>
+          <t>https://i.ytimg.com/vi/OKVpJNLCm1U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/OKVpJNLCm1U/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=OKVpJNLCm1U</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=OKVpJNLCm1U</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1030,30 +979,27 @@
       <c r="A19" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B19" t="n">
-        <v>194</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KSensei</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KSensei</t>
+          <t>Ragnarok Online Latam: Mega Guia de UP do 1 ao 99 EM 1 DIA! Melhores Rotas!</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: Mega Guia de UP do 1 ao 99 EM 1 DIA! Melhores Rotas!</t>
+          <t>https://i.ytimg.com/vi/Rvmm5-zoczQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Rvmm5-zoczQ/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=Rvmm5-zoczQ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Rvmm5-zoczQ</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1063,30 +1009,27 @@
       <c r="A20" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B20" t="n">
-        <v>213</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tigrin MMO</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tigrin MMO</t>
+          <t>Como pegar a primeira classe Ragnarok Latam! GUIA DE INICIANTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Como pegar a primeira classe Ragnarok Latam! GUIA DE INICIANTE</t>
+          <t>https://i.ytimg.com/vi/HFs4tWxafjw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/HFs4tWxafjw/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=HFs4tWxafjw</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=HFs4tWxafjw</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1096,30 +1039,27 @@
       <c r="A21" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B21" t="n">
-        <v>215</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tigrin MMO</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tigrin MMO</t>
+          <t>Qual CLASSE começar no Ragnarok Latam! (Guia Completo de CLASSES)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Qual CLASSE começar no Ragnarok Latam! (Guia Completo de CLASSES)</t>
+          <t>https://i.ytimg.com/vi/u-J9EWZ-Fug/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/u-J9EWZ-Fug/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=u-J9EWZ-Fug</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=u-J9EWZ-Fug</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1129,30 +1069,27 @@
       <c r="A22" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B22" t="n">
-        <v>227</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Arcebispo no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Guia Geral de Arcebispo no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/qhFfVJ2x5IE/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/qhFfVJ2x5IE/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=qhFfVJ2x5IE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=qhFfVJ2x5IE</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>Arcebispo</t>
         </is>
@@ -1162,30 +1099,27 @@
       <c r="A23" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B23" t="n">
-        <v>228</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Bioquímico no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Guia Geral de Bioquímico no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/XKK6Y81RIRo/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/XKK6Y81RIRo/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=XKK6Y81RIRo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=XKK6Y81RIRo</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t>Bioquímico</t>
         </is>
@@ -1195,30 +1129,27 @@
       <c r="A24" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B24" t="n">
-        <v>229</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Mecânico no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Guia Geral de Mecânico no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/Il_ahX6j4Ks/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Il_ahX6j4Ks/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=Il_ahX6j4Ks</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Il_ahX6j4Ks</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>Mecânico</t>
         </is>
@@ -1228,30 +1159,27 @@
       <c r="A25" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B25" t="n">
-        <v>230</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Renegado no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Guia Geral de Renegado no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/ycqEP81aIoo/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ycqEP81aIoo/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=ycqEP81aIoo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ycqEP81aIoo</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t>Renegado</t>
         </is>
@@ -1261,30 +1189,27 @@
       <c r="A26" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B26" t="n">
-        <v>231</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Sicário no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Guia Geral de Sicário no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/pmH1bweJx3I/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/pmH1bweJx3I/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=pmH1bweJx3I</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=pmH1bweJx3I</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>Sicário</t>
         </is>
@@ -1294,30 +1219,27 @@
       <c r="A27" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B27" t="n">
-        <v>232</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Guardião Real no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Guia Geral de Guardião Real no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/za4lHN6NT3E/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/za4lHN6NT3E/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=za4lHN6NT3E</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=za4lHN6NT3E</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>Guardião Real</t>
         </is>
@@ -1327,30 +1249,27 @@
       <c r="A28" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B28" t="n">
-        <v>233</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CerosPhantom</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Guia Geral de Cavaleiro Rúnico no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Guia Geral de Cavaleiro Rúnico no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>https://i.ytimg.com/vi/209WuZD9F-8/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/209WuZD9F-8/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=209WuZD9F-8</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=209WuZD9F-8</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>Cavaleiro Rúnico</t>
         </is>
@@ -1358,32 +1277,29 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B29" t="n">
-        <v>277</v>
+        <v>288</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Augustt0h</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Augustt0h</t>
+          <t>Ragnarok Online: Novos sistemas + Guia de onde upar level do 05-125!</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ragnarok Online: Guia de Companions para Upar e Sobreviver!</t>
+          <t>https://i.ytimg.com/vi/DY1Ht0NNF2E/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/iLwBnk67QT0/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=DY1Ht0NNF2E</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iLwBnk67QT0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1391,32 +1307,29 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B30" t="n">
-        <v>285</v>
+        <v>301</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cabana do Sentinela</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Augustt0h</t>
+          <t>Guia de Arcos - Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ragnarok Online: Guia de Keybinds - Atalhos pra Facilitar o Gameplay!</t>
+          <t>https://i.ytimg.com/vi/Xj-UGWrnC8c/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Uo2sJL0x9Xw/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=Xj-UGWrnC8c</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Uo2sJL0x9Xw</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1424,65 +1337,59 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B31" t="n">
-        <v>288</v>
+        <v>317</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ice Zone</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Augustt0h</t>
+          <t>Guia de Sentinela: Rota de leveling 1 ao 121| Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ragnarok Online: Novos sistemas + Guia de onde upar level do 05-125!</t>
+          <t>https://i.ytimg.com/vi/pU8SGibZ91M/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/DY1Ht0NNF2E/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=pU8SGibZ91M</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DY1Ht0NNF2E</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Geral</t>
+          <t>Sentinela</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B32" t="n">
-        <v>301</v>
+        <v>326</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lokalt Games</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cabana do Sentinela</t>
+          <t>Do 100 ao 175 Ficando Rico – Guia "Alternativo" de UP no Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Guia de Arcos - Ragnarok LATAM</t>
+          <t>https://i.ytimg.com/vi/hEj1QZSX4Qk/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Xj-UGWrnC8c/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=hEj1QZSX4Qk</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Xj-UGWrnC8c</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1490,65 +1397,59 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B33" t="n">
-        <v>317</v>
+        <v>327</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lokalt Games</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ice Zone</t>
+          <t>Do 1 ao 99 SEM SEGUIR A MANADA – Guia Alternativo de UP no Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Guia de Sentinela: Rota de leveling 1 ao 121| Ragnarok Online LATAM</t>
+          <t>https://i.ytimg.com/vi/_IQNuPyAPKU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/pU8SGibZ91M/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=_IQNuPyAPKU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU8SGibZ91M</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Sentinela</t>
+          <t>Geral</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B34" t="n">
-        <v>326</v>
+        <v>362</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Millifiore</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lokalt Games</t>
+          <t>Ragnarok Latam: Peça seu reembolso! Guia de como fazer e mais</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Do 100 ao 175 Ficando Rico – Guia "Alternativo" de UP no Ragnarok LATAM</t>
+          <t>https://i.ytimg.com/vi/f_abo2Du_j0/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/hEj1QZSX4Qk/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=f_abo2Du_j0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=hEj1QZSX4Qk</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>Geral</t>
         </is>
@@ -1556,98 +1457,29 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B35" t="n">
-        <v>327</v>
+        <v>382</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>halv</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lokalt Games</t>
+          <t>GUIA DE RENEGADO OFENSIVA FATAL | RAGNAROK LATAM | SKILLS, EQUIPAMENTOS, TESTES E +</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Do 1 ao 99 SEM SEGUIR A MANADA – Guia Alternativo de UP no Ragnarok LATAM</t>
+          <t>https://i.ytimg.com/vi/uBR8XRSN5FM/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/_IQNuPyAPKU/maxresdefault.jpg</t>
+          <t>https://www.youtube.com/watch?v=uBR8XRSN5FM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=_IQNuPyAPKU</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B36" t="n">
-        <v>362</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Millifiore</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Ragnarok Latam: Peça seu reembolso! Guia de como fazer e mais</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/f_abo2Du_j0/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=f_abo2Du_j0</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B37" t="n">
-        <v>382</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>halv</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GUIA DE RENEGADO OFENSIVA FATAL | RAGNAROK LATAM | SKILLS, EQUIPAMENTOS, TESTES E +</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/uBR8XRSN5FM/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=uBR8XRSN5FM</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>Renegado</t>
         </is>

--- a/guias.xlsx
+++ b/guias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,37 +797,37 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lyel z</t>
+          <t>deathnokage</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COMEÇANDO BEM NO KAFRAVERSO! GUIA DE COMEÇO DE JORNADA!</t>
+          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 3 - Progressão de Equipamentos por Episódio</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/lDddhc-YhGA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ng4j2_xKE-U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=lDddhc-YhGA</t>
+          <t>https://www.youtube.com/watch?v=ng4j2_xKE-U</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Arcano</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 3 - Progressão de Equipamentos por Episódio</t>
+          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 2 - Habilidades explicadas (-Memorizar)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ng4j2_xKE-U/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/OakmWb5kiMA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ng4j2_xKE-U</t>
+          <t>https://www.youtube.com/watch?v=OakmWb5kiMA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -857,7 +857,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -866,17 +866,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 2 - Habilidades explicadas (-Memorizar)</t>
+          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 1 - Status, Árvore de Habilidades e Builds</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/OakmWb5kiMA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/r2D6PBRE7O4/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OakmWb5kiMA</t>
+          <t>https://www.youtube.com/watch?v=r2D6PBRE7O4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -887,86 +887,86 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>deathnokage</t>
+          <t>KDash Ragnarok</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam Guia Completo - Arcano: Capítulo 1 - Status, Árvore de Habilidades e Builds</t>
+          <t>Guia de SICÁRIO: Toxinas Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/r2D6PBRE7O4/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/9yIjpI58N4Q/sddefault.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=r2D6PBRE7O4</t>
+          <t>https://www.youtube.com/watch?v=9yIjpI58N4Q</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Arcano</t>
+          <t>Sicário</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KDash Ragnarok</t>
+          <t>Joga Junto Ragnarok</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Guia de SICÁRIO: Toxinas Ragnarok LATAM</t>
+          <t>As melhores classes para [NÃO] começar no Ragnarok LATAM! 🗡️ [Guia para {NÃO} Iniciantes]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/9yIjpI58N4Q/sddefault.jpg</t>
+          <t>https://i.ytimg.com/vi/OKVpJNLCm1U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9yIjpI58N4Q</t>
+          <t>https://www.youtube.com/watch?v=OKVpJNLCm1U</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sicário</t>
+          <t>Geral</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Joga Junto Ragnarok</t>
+          <t>KSensei</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>As melhores classes para [NÃO] começar no Ragnarok LATAM! 🗡️ [Guia para {NÃO} Iniciantes]</t>
+          <t>Ragnarok Online Latam: Mega Guia de UP do 1 ao 99 EM 1 DIA! Melhores Rotas!</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/OKVpJNLCm1U/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/Rvmm5-zoczQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OKVpJNLCm1U</t>
+          <t>https://www.youtube.com/watch?v=Rvmm5-zoczQ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -977,26 +977,26 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KSensei</t>
+          <t>tigrin MMO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: Mega Guia de UP do 1 ao 99 EM 1 DIA! Melhores Rotas!</t>
+          <t>Como pegar a primeira classe Ragnarok Latam! GUIA DE INICIANTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Rvmm5-zoczQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/HFs4tWxafjw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Rvmm5-zoczQ</t>
+          <t>https://www.youtube.com/watch?v=HFs4tWxafjw</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1007,7 +1007,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Como pegar a primeira classe Ragnarok Latam! GUIA DE INICIANTE</t>
+          <t>Qual CLASSE começar no Ragnarok Latam! (Guia Completo de CLASSES)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/HFs4tWxafjw/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/u-J9EWZ-Fug/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=HFs4tWxafjw</t>
+          <t>https://www.youtube.com/watch?v=u-J9EWZ-Fug</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1037,37 +1037,37 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tigrin MMO</t>
+          <t>CerosPhantom</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Qual CLASSE começar no Ragnarok Latam! (Guia Completo de CLASSES)</t>
+          <t>Guia Geral de Arcebispo no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/u-J9EWZ-Fug/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/qhFfVJ2x5IE/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=u-J9EWZ-Fug</t>
+          <t>https://www.youtube.com/watch?v=qhFfVJ2x5IE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Arcebispo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1076,28 +1076,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Guia Geral de Arcebispo no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Guia Geral de Bioquímico no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/qhFfVJ2x5IE/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/XKK6Y81RIRo/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qhFfVJ2x5IE</t>
+          <t>https://www.youtube.com/watch?v=XKK6Y81RIRo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Arcebispo</t>
+          <t>Bioquímico</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1106,28 +1106,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Guia Geral de Bioquímico no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Guia Geral de Mecânico no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/XKK6Y81RIRo/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/Il_ahX6j4Ks/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XKK6Y81RIRo</t>
+          <t>https://www.youtube.com/watch?v=Il_ahX6j4Ks</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bioquímico</t>
+          <t>Mecânico</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1136,28 +1136,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Guia Geral de Mecânico no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Guia Geral de Renegado no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Il_ahX6j4Ks/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ycqEP81aIoo/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Il_ahX6j4Ks</t>
+          <t>https://www.youtube.com/watch?v=ycqEP81aIoo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mecânico</t>
+          <t>Renegado</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1166,28 +1166,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Guia Geral de Renegado no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Guia Geral de Sicário no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ycqEP81aIoo/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/pmH1bweJx3I/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ycqEP81aIoo</t>
+          <t>https://www.youtube.com/watch?v=pmH1bweJx3I</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Renegado</t>
+          <t>Sicário</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1196,28 +1196,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Guia Geral de Sicário no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Guia Geral de Guardião Real no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/pmH1bweJx3I/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/za4lHN6NT3E/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pmH1bweJx3I</t>
+          <t>https://www.youtube.com/watch?v=za4lHN6NT3E</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sicário</t>
+          <t>Guardião Real</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1226,77 +1226,77 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Guia Geral de Guardião Real no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Guia Geral de Cavaleiro Rúnico no Ragnarok LATAM (Ep. 14.2)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/za4lHN6NT3E/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/209WuZD9F-8/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=za4lHN6NT3E</t>
+          <t>https://www.youtube.com/watch?v=209WuZD9F-8</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Guardião Real</t>
+          <t>Cavaleiro Rúnico</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CerosPhantom</t>
+          <t>Augustt0h</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Guia Geral de Cavaleiro Rúnico no Ragnarok LATAM (Ep. 14.2)</t>
+          <t>Ragnarok Online: Novos sistemas + Guia de onde upar level do 05-125!</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/209WuZD9F-8/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/DY1Ht0NNF2E/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=209WuZD9F-8</t>
+          <t>https://www.youtube.com/watch?v=DY1Ht0NNF2E</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cavaleiro Rúnico</t>
+          <t>Geral</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Augustt0h</t>
+          <t>Cabana do Sentinela</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ragnarok Online: Novos sistemas + Guia de onde upar level do 05-125!</t>
+          <t>Guia de Arcos - Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/DY1Ht0NNF2E/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/Xj-UGWrnC8c/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DY1Ht0NNF2E</t>
+          <t>https://www.youtube.com/watch?v=Xj-UGWrnC8c</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1307,67 +1307,67 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cabana do Sentinela</t>
+          <t>Ice Zone</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Guia de Arcos - Ragnarok LATAM</t>
+          <t>Guia de Sentinela: Rota de leveling 1 ao 121| Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Xj-UGWrnC8c/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/pU8SGibZ91M/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Xj-UGWrnC8c</t>
+          <t>https://www.youtube.com/watch?v=pU8SGibZ91M</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Sentinela</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ice Zone</t>
+          <t>Lokalt Games</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Guia de Sentinela: Rota de leveling 1 ao 121| Ragnarok Online LATAM</t>
+          <t>Do 100 ao 175 Ficando Rico – Guia "Alternativo" de UP no Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/pU8SGibZ91M/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/hEj1QZSX4Qk/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU8SGibZ91M</t>
+          <t>https://www.youtube.com/watch?v=hEj1QZSX4Qk</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Geral</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Do 100 ao 175 Ficando Rico – Guia "Alternativo" de UP no Ragnarok LATAM</t>
+          <t>Do 1 ao 99 SEM SEGUIR A MANADA – Guia Alternativo de UP no Ragnarok LATAM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/hEj1QZSX4Qk/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/_IQNuPyAPKU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hEj1QZSX4Qk</t>
+          <t>https://www.youtube.com/watch?v=_IQNuPyAPKU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1397,26 +1397,26 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lokalt Games</t>
+          <t>Millifiore</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Do 1 ao 99 SEM SEGUIR A MANADA – Guia Alternativo de UP no Ragnarok LATAM</t>
+          <t>Ragnarok Latam: Peça seu reembolso! Guia de como fazer e mais</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/_IQNuPyAPKU/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/f_abo2Du_j0/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_IQNuPyAPKU</t>
+          <t>https://www.youtube.com/watch?v=f_abo2Du_j0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1427,59 +1427,29 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Millifiore</t>
+          <t>halv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ragnarok Latam: Peça seu reembolso! Guia de como fazer e mais</t>
+          <t>GUIA DE RENEGADO OFENSIVA FATAL | RAGNAROK LATAM | SKILLS, EQUIPAMENTOS, TESTES E +</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/f_abo2Du_j0/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/uBR8XRSN5FM/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=f_abo2Du_j0</t>
+          <t>https://www.youtube.com/watch?v=uBR8XRSN5FM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>halv</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>GUIA DE RENEGADO OFENSIVA FATAL | RAGNAROK LATAM | SKILLS, EQUIPAMENTOS, TESTES E +</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/uBR8XRSN5FM/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=uBR8XRSN5FM</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>Renegado</t>
         </is>
